--- a/MetodosFaltante.xlsx
+++ b/MetodosFaltante.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>Banco</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Pablo - Tipo de Cambio</t>
+  </si>
+  <si>
+    <t>asdf</t>
   </si>
 </sst>
 </file>
@@ -877,9 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -889,6 +890,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>

--- a/MetodosFaltante.xlsx
+++ b/MetodosFaltante.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -192,13 +192,13 @@
     <t>Pablo - Tipo de Cambio</t>
   </si>
   <si>
-    <t>asdf</t>
+    <t>marica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,23 +374,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -426,23 +409,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">

--- a/MetodosFaltante.xlsx
+++ b/MetodosFaltante.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>Banco</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>marica</t>
+  </si>
+  <si>
+    <t>sdasdasdasd</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -859,6 +864,9 @@
       <c r="A1" t="s">
         <v>55</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>

--- a/MetodosFaltante.xlsx
+++ b/MetodosFaltante.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t>Banco</t>
   </si>
@@ -190,18 +190,12 @@
   </si>
   <si>
     <t>Pablo - Tipo de Cambio</t>
-  </si>
-  <si>
-    <t>marica</t>
-  </si>
-  <si>
-    <t>sdasdasdasd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,6 +371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -412,6 +423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -849,9 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -861,12 +887,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>

--- a/MetodosFaltante.xlsx
+++ b/MetodosFaltante.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>Banco</t>
   </si>
@@ -190,12 +190,18 @@
   </si>
   <si>
     <t>Pablo - Tipo de Cambio</t>
+  </si>
+  <si>
+    <t>sdasdasdadsasd</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,23 +377,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -423,23 +412,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -877,7 +849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -887,6 +861,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>
